--- a/productAndOder.xlsx
+++ b/productAndOder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>20210106125342</t>
+  </si>
+  <si>
+    <t>20210114060139</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -492,6 +495,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
